--- a/cmd/tbf18/按分サンプル.xlsx
+++ b/cmd/tbf18/按分サンプル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_dev\teckbookfest18-sample\cmd\tbf18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B7BAF-68FB-46B4-A9BD-5EEDDAF24D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D1C168-0BE2-4902-92F2-BBDAE3F34089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勘定科目一覧" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
   <si>
     <t>勘定科目</t>
     <rPh sb="0" eb="4">
@@ -757,12 +757,86 @@
   <si>
     <t>仕訳2</t>
   </si>
+  <si>
+    <t>原価要素</t>
+    <rPh sb="0" eb="4">
+      <t>ゲンカヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経費</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>労務費</t>
+    <rPh sb="0" eb="3">
+      <t>ロウムヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経費_役員報酬</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ヤクインホウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外注費</t>
+    <rPh sb="0" eb="3">
+      <t>ガイチュウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経費_外注費</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ガイチュウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経費_通信費</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ツウシンヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給与</t>
+    <rPh sb="0" eb="2">
+      <t>キュウヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直間</t>
+  </si>
+  <si>
+    <t>間接費</t>
+  </si>
+  <si>
+    <t>直接費</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +871,15 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -834,10 +917,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1118,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B9A083-44D2-4E2B-A9EA-225B9045A3C9}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1126,115 +1212,169 @@
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C11" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1244,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CZ3"/>
+  <dimension ref="A1:DB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -1252,948 +1392,968 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104">
-      <c r="A1" t="s">
+    <row r="1" spans="1:106" s="3" customFormat="1" ht="18">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" s="4" t="s">
         <v>117</v>
       </c>
+      <c r="DB1" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:104">
-      <c r="A2" t="s">
+    <row r="2" spans="1:106">
+      <c r="A2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L2">
+      <c r="M2" s="5">
         <v>1000</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="N2">
+      <c r="O2" s="5">
         <v>100</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AV2">
+      <c r="AW2" s="5">
         <v>1000</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AX2">
+      <c r="AY2" s="5">
         <v>200</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CI2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CK2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CL2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CM2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CN2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CO2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CP2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CQ2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CR2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CS2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CT2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CU2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CV2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CW2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CX2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CY2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="CZ2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DA2" s="5" t="s">
         <v>204</v>
       </c>
+      <c r="DB2" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="3" spans="1:104">
-      <c r="A3" t="s">
+    <row r="3" spans="1:106">
+      <c r="A3" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L3">
+      <c r="M3" s="5">
         <v>1234</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="N3">
+      <c r="O3" s="5">
         <v>100</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AV3">
+      <c r="AW3" s="5">
         <v>1000</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AX3">
+      <c r="AY3" s="5">
         <v>200</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BL3" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BM3" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BN3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BO3" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BR3" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BS3" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BT3" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BU3" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BV3" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BW3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BX3" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="BY3" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="BZ3" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="CA3" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="CB3" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CC3" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="CC3" t="s">
+      <c r="CD3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="CD3" t="s">
+      <c r="CE3" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="CE3" t="s">
+      <c r="CF3" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="CF3" t="s">
+      <c r="CG3" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="CG3" t="s">
+      <c r="CH3" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="CH3" t="s">
+      <c r="CI3" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="CI3" t="s">
+      <c r="CJ3" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="CJ3" t="s">
+      <c r="CK3" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="CK3" t="s">
+      <c r="CL3" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="CL3" t="s">
+      <c r="CM3" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="CM3" t="s">
+      <c r="CN3" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="CN3" t="s">
+      <c r="CO3" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="CO3" t="s">
+      <c r="CP3" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="CP3" t="s">
+      <c r="CQ3" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="CQ3" t="s">
+      <c r="CR3" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="CR3" t="s">
+      <c r="CS3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="CS3" t="s">
+      <c r="CT3" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="CT3" t="s">
+      <c r="CU3" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="CU3" t="s">
+      <c r="CV3" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="CV3" t="s">
+      <c r="CW3" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="CW3" t="s">
+      <c r="CX3" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="CX3" t="s">
+      <c r="CY3" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="CY3" t="s">
+      <c r="CZ3" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="CZ3" t="s">
+      <c r="DA3" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="DB3" s="5" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2207,7 +2367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E38EC3-7F7A-4EBC-819D-9AB5D2ACFCC5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2282,7 +2442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -2317,7 +2479,7 @@
         <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
         <v>213</v>
@@ -2343,7 +2505,7 @@
         <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
         <v>211</v>
@@ -2372,23 +2534,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
@@ -2400,33 +2566,36 @@
         <v>208</v>
       </c>
       <c r="F1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>214</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>209</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>210</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>215</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
         <v>213</v>
@@ -2438,33 +2607,36 @@
         <v>206</v>
       </c>
       <c r="F2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" t="s">
         <v>122</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>124</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1000</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>211</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>197</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
         <v>213</v>
@@ -2476,33 +2648,36 @@
         <v>206</v>
       </c>
       <c r="F3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" t="s">
         <v>122</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>124</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1000</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>212</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>197</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
         <v>213</v>
@@ -2514,33 +2689,36 @@
         <v>206</v>
       </c>
       <c r="F4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" t="s">
         <v>122</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>124</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1000</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>218</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>197</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
         <v>211</v>
@@ -2552,24 +2730,27 @@
         <v>219</v>
       </c>
       <c r="F5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" t="s">
         <v>122</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>124</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1234</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>211</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>197</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1234</v>
       </c>
     </row>

--- a/cmd/tbf18/按分サンプル.xlsx
+++ b/cmd/tbf18/按分サンプル.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_dev\teckbookfest18-sample\cmd\tbf18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D1C168-0BE2-4902-92F2-BBDAE3F34089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="勘定科目一覧" sheetId="2" r:id="rId1"/>
@@ -18,6 +17,7 @@
     <sheet name="按分ルール一覧" sheetId="3" r:id="rId3"/>
     <sheet name="集計仕訳一覧" sheetId="4" r:id="rId4"/>
     <sheet name="按分結果明細一覧" sheetId="5" r:id="rId5"/>
+    <sheet name="按分結果" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="238">
   <si>
     <t>勘定科目</t>
     <rPh sb="0" eb="4">
@@ -831,11 +831,29 @@
   <si>
     <t>直接費</t>
   </si>
+  <si>
+    <t>金額</t>
+  </si>
+  <si>
+    <t>税</t>
+  </si>
+  <si>
+    <t>税込金額</t>
+  </si>
+  <si>
+    <t>課対仕入（控80）10%</t>
+  </si>
+  <si>
+    <t>内税</t>
+  </si>
+  <si>
+    <t>仕訳3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -865,7 +883,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
@@ -873,7 +891,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
@@ -919,17 +937,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -942,7 +960,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1210,10 +1228,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col bestFit="true" customWidth="true" max="1" min="1" width="25.5"/>
+    <col bestFit="true" customWidth="true" max="2" min="2" width="11.625"/>
+    <col bestFit="true" customWidth="true" max="3" min="3" width="14.125"/>
+    <col bestFit="true" customWidth="true" max="4" min="4" width="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1384,20 +1402,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DB3"/>
+  <dimension ref="A1:DB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col bestFit="true" customWidth="true" max="4" min="4" width="12.875"/>
+    <col bestFit="true" customWidth="true" max="6" min="5" width="12.125"/>
+    <col bestFit="true" customWidth="true" max="8" min="8" width="11.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="3" customFormat="1" ht="18">
+    <row r="1" spans="1:106" s="3" customFormat="true" ht="18">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -2373,7 +2389,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col bestFit="true" customWidth="true" max="2" min="1" width="12.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2536,17 +2552,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col bestFit="true" customWidth="true" max="2" min="2" width="12.125"/>
+    <col bestFit="true" customWidth="true" max="3" min="3" width="12.875"/>
+    <col bestFit="true" customWidth="true" max="5" min="4" width="12.125"/>
+    <col bestFit="true" customWidth="true" max="6" min="6" width="7.125"/>
+    <col bestFit="true" customWidth="true" max="7" min="7" width="11"/>
+    <col bestFit="true" customWidth="true" max="10" min="10" width="9.75"/>
+    <col bestFit="true" customWidth="true" max="11" min="11" width="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2758,4 +2774,165 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="J7" sqref="J1:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2">
+        <v>334</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3">
+        <v>1234</v>
+      </c>
+      <c r="H3">
+        <v>123</v>
+      </c>
+      <c r="I3">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4">
+        <v>333</v>
+      </c>
+      <c r="H4">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5">
+        <v>333</v>
+      </c>
+      <c r="H5">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cmd/tbf18/按分サンプル.xlsx
+++ b/cmd/tbf18/按分サンプル.xlsx
@@ -19,17 +19,28 @@
     <sheet name="按分結果明細一覧" sheetId="5" r:id="rId5"/>
     <sheet name="按分結果" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>勘定科目</t>
     <rPh sb="0" eb="4">
@@ -415,269 +426,13 @@
     <t>支払依頼申請番号</t>
   </si>
   <si>
-    <t>2024/05/01</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>SC1</t>
-  </si>
-  <si>
-    <t>SC2</t>
-  </si>
-  <si>
     <t>課税</t>
   </si>
   <si>
-    <t>外税</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>無</t>
-  </si>
-  <si>
-    <t>TC1</t>
-  </si>
-  <si>
-    <t>取引先A</t>
-  </si>
-  <si>
-    <t>TSC1</t>
-  </si>
-  <si>
-    <t>TSC2</t>
-  </si>
-  <si>
-    <t>品目A</t>
-  </si>
-  <si>
-    <t>PSC1</t>
-  </si>
-  <si>
-    <t>PSC2</t>
-  </si>
-  <si>
-    <t>補助A</t>
-  </si>
-  <si>
-    <t>HSC1</t>
-  </si>
-  <si>
-    <t>HSC2</t>
-  </si>
-  <si>
-    <t>部門A</t>
-  </si>
-  <si>
-    <t>BSC1</t>
-  </si>
-  <si>
-    <t>BSC2</t>
-  </si>
-  <si>
-    <t>メモA</t>
-  </si>
-  <si>
-    <t>MSC1</t>
-  </si>
-  <si>
-    <t>MSC2</t>
-  </si>
-  <si>
-    <t>セグ1</t>
-  </si>
-  <si>
-    <t>SSC1</t>
-  </si>
-  <si>
-    <t>SSC2</t>
-  </si>
-  <si>
-    <t>セグ2</t>
-  </si>
-  <si>
-    <t>SSC3</t>
-  </si>
-  <si>
-    <t>SSC4</t>
-  </si>
-  <si>
-    <t>セグ3</t>
-  </si>
-  <si>
-    <t>SSC5</t>
-  </si>
-  <si>
-    <t>SSC6</t>
-  </si>
-  <si>
-    <t>備考A</t>
-  </si>
-  <si>
-    <t>売上</t>
-  </si>
-  <si>
-    <t>LSC1</t>
-  </si>
-  <si>
-    <t>LSC2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>取引先B</t>
-  </si>
-  <si>
-    <t>TSC3</t>
-  </si>
-  <si>
-    <t>TSC4</t>
-  </si>
-  <si>
-    <t>品目B</t>
-  </si>
-  <si>
-    <t>PSC3</t>
-  </si>
-  <si>
-    <t>PSC4</t>
-  </si>
-  <si>
-    <t>補助B</t>
-  </si>
-  <si>
-    <t>HSC3</t>
-  </si>
-  <si>
-    <t>HSC4</t>
-  </si>
-  <si>
-    <t>部門B</t>
-  </si>
-  <si>
-    <t>BSC3</t>
-  </si>
-  <si>
-    <t>BSC4</t>
-  </si>
-  <si>
-    <t>メモB</t>
-  </si>
-  <si>
-    <t>MSC3</t>
-  </si>
-  <si>
-    <t>MSC4</t>
-  </si>
-  <si>
-    <t>セグ4</t>
-  </si>
-  <si>
-    <t>SSC7</t>
-  </si>
-  <si>
-    <t>SSC8</t>
-  </si>
-  <si>
-    <t>セグ5</t>
-  </si>
-  <si>
-    <t>SSC9</t>
-  </si>
-  <si>
-    <t>SSC10</t>
-  </si>
-  <si>
-    <t>セグ6</t>
-  </si>
-  <si>
-    <t>SSC11</t>
-  </si>
-  <si>
-    <t>SSC12</t>
-  </si>
-  <si>
-    <t>備考B</t>
-  </si>
-  <si>
-    <t>決算</t>
-  </si>
-  <si>
-    <t>発行元A</t>
-  </si>
-  <si>
-    <t>2024-05-02</t>
-  </si>
-  <si>
-    <t>2024-05-03</t>
-  </si>
-  <si>
-    <t>承認</t>
-  </si>
-  <si>
-    <t>申請者A</t>
-  </si>
-  <si>
-    <t>2024-05-04</t>
-  </si>
-  <si>
-    <t>承認者A</t>
-  </si>
-  <si>
-    <t>2024-05-05</t>
-  </si>
-  <si>
-    <t>作成者A</t>
-  </si>
-  <si>
-    <t>税込</t>
-  </si>
-  <si>
-    <t>TRX1</t>
-  </si>
-  <si>
-    <t>ACC1</t>
-  </si>
-  <si>
-    <t>伝票1</t>
-  </si>
-  <si>
-    <t>仕訳1</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>フラグ</t>
-  </si>
-  <si>
-    <t>2024/05/10</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>内容A</t>
-  </si>
-  <si>
-    <t>方法A</t>
-  </si>
-  <si>
-    <t>精算1</t>
-  </si>
-  <si>
-    <t>依頼1</t>
-  </si>
-  <si>
-    <t>hoge</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>202405</t>
@@ -717,18 +472,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fuga</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>piyo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>合計金額</t>
   </si>
   <si>
@@ -748,14 +491,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hogehoge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>仕訳2</t>
   </si>
   <si>
     <t>原価要素</t>
@@ -841,13 +577,308 @@
     <t>税込金額</t>
   </si>
   <si>
-    <t>課対仕入（控80）10%</t>
-  </si>
-  <si>
-    <t>内税</t>
+    <t>2024/05/01</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>SC2</t>
+  </si>
+  <si>
+    <t>外税</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>取引先A</t>
+  </si>
+  <si>
+    <t>TSC1</t>
+  </si>
+  <si>
+    <t>TSC2</t>
+  </si>
+  <si>
+    <t>品目A</t>
+  </si>
+  <si>
+    <t>PSC1</t>
+  </si>
+  <si>
+    <t>PSC2</t>
+  </si>
+  <si>
+    <t>補助A</t>
+  </si>
+  <si>
+    <t>HSC1</t>
+  </si>
+  <si>
+    <t>HSC2</t>
+  </si>
+  <si>
+    <t>BSC1</t>
+  </si>
+  <si>
+    <t>BSC2</t>
+  </si>
+  <si>
+    <t>メモA</t>
+  </si>
+  <si>
+    <t>MSC1</t>
+  </si>
+  <si>
+    <t>MSC2</t>
+  </si>
+  <si>
+    <t>セグ1</t>
+  </si>
+  <si>
+    <t>SSC1</t>
+  </si>
+  <si>
+    <t>SSC2</t>
+  </si>
+  <si>
+    <t>セグ2</t>
+  </si>
+  <si>
+    <t>SSC3</t>
+  </si>
+  <si>
+    <t>SSC4</t>
+  </si>
+  <si>
+    <t>セグ3</t>
+  </si>
+  <si>
+    <t>SSC5</t>
+  </si>
+  <si>
+    <t>SSC6</t>
+  </si>
+  <si>
+    <t>備考A</t>
+  </si>
+  <si>
+    <t>売上</t>
+  </si>
+  <si>
+    <t>LSC1</t>
+  </si>
+  <si>
+    <t>LSC2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>取引先B</t>
+  </si>
+  <si>
+    <t>TSC3</t>
+  </si>
+  <si>
+    <t>TSC4</t>
+  </si>
+  <si>
+    <t>品目B</t>
+  </si>
+  <si>
+    <t>PSC3</t>
+  </si>
+  <si>
+    <t>PSC4</t>
+  </si>
+  <si>
+    <t>補助B</t>
+  </si>
+  <si>
+    <t>HSC3</t>
+  </si>
+  <si>
+    <t>HSC4</t>
+  </si>
+  <si>
+    <t>部門B</t>
+  </si>
+  <si>
+    <t>BSC3</t>
+  </si>
+  <si>
+    <t>BSC4</t>
+  </si>
+  <si>
+    <t>メモB</t>
+  </si>
+  <si>
+    <t>MSC3</t>
+  </si>
+  <si>
+    <t>MSC4</t>
+  </si>
+  <si>
+    <t>セグ4</t>
+  </si>
+  <si>
+    <t>SSC7</t>
+  </si>
+  <si>
+    <t>SSC8</t>
+  </si>
+  <si>
+    <t>セグ5</t>
+  </si>
+  <si>
+    <t>SSC9</t>
+  </si>
+  <si>
+    <t>SSC10</t>
+  </si>
+  <si>
+    <t>セグ6</t>
+  </si>
+  <si>
+    <t>SSC11</t>
+  </si>
+  <si>
+    <t>SSC12</t>
+  </si>
+  <si>
+    <t>備考B</t>
+  </si>
+  <si>
+    <t>決算</t>
+  </si>
+  <si>
+    <t>発行元A</t>
+  </si>
+  <si>
+    <t>2024-05-02</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
+    <t>承認</t>
+  </si>
+  <si>
+    <t>申請者A</t>
+  </si>
+  <si>
+    <t>2024-05-04</t>
+  </si>
+  <si>
+    <t>承認者A</t>
+  </si>
+  <si>
+    <t>2024-05-05</t>
+  </si>
+  <si>
+    <t>作成者A</t>
+  </si>
+  <si>
+    <t>税込</t>
+  </si>
+  <si>
+    <t>TRX1</t>
+  </si>
+  <si>
+    <t>ACC1</t>
+  </si>
+  <si>
+    <t>伝票1</t>
+  </si>
+  <si>
+    <t>仕訳1</t>
+  </si>
+  <si>
+    <t>フラグ</t>
+  </si>
+  <si>
+    <t>2024/05/10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>内容A</t>
+  </si>
+  <si>
+    <t>方法A</t>
+  </si>
+  <si>
+    <t>精算1</t>
+  </si>
+  <si>
+    <t>依頼1</t>
+  </si>
+  <si>
+    <t>案件A</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件B</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全社共通</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>仕訳2</t>
   </si>
   <si>
     <t>仕訳3</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1273,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
@@ -1266,7 +1297,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1278,7 +1309,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -1286,13 +1317,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1306,7 +1337,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -1320,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1332,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1341,10 +1372,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -1368,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1384,13 +1415,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -1418,16 +1449,16 @@
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -1734,643 +1765,954 @@
       </c>
     </row>
     <row r="2" spans="1:106">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2">
+        <v>3000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" t="s">
+        <v>150</v>
+      </c>
+      <c r="S2" t="s">
+        <v>151</v>
+      </c>
+      <c r="T2" t="s">
+        <v>152</v>
+      </c>
+      <c r="U2" t="s">
+        <v>153</v>
+      </c>
+      <c r="V2" t="s">
+        <v>154</v>
+      </c>
+      <c r="W2" t="s">
+        <v>155</v>
+      </c>
+      <c r="X2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW2">
+        <v>1000</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY2">
+        <v>200</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>197</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>201</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>203</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>204</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>205</v>
+      </c>
+      <c r="CC2" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="CD2" t="s">
+        <v>207</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>209</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>210</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>212</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>213</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>215</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>216</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>217</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>218</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>219</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>220</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>221</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>222</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW2" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="CX2" t="s">
+        <v>224</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>225</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>226</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:106">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3">
+        <v>6800</v>
+      </c>
+      <c r="N3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" t="s">
+        <v>150</v>
+      </c>
+      <c r="S3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T3" t="s">
+        <v>152</v>
+      </c>
+      <c r="U3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V3" t="s">
+        <v>154</v>
+      </c>
+      <c r="W3" t="s">
+        <v>155</v>
+      </c>
+      <c r="X3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW3">
+        <v>1000</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY3">
+        <v>200</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>190</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>194</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>199</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>201</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>203</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>204</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>205</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>206</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>207</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>209</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>210</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>212</v>
+      </c>
+      <c r="CJ3" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="CK3" t="s">
+        <v>214</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>215</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>216</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>217</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>218</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>219</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>234</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>221</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>222</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>224</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>225</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>226</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:106">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4">
+        <v>2100</v>
+      </c>
+      <c r="N4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" t="s">
+        <v>150</v>
+      </c>
+      <c r="S4" t="s">
+        <v>151</v>
+      </c>
+      <c r="T4" t="s">
+        <v>152</v>
+      </c>
+      <c r="U4" t="s">
+        <v>153</v>
+      </c>
+      <c r="V4" t="s">
+        <v>154</v>
+      </c>
+      <c r="W4" t="s">
+        <v>155</v>
+      </c>
+      <c r="X4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW4">
+        <v>1000</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY4">
+        <v>200</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>188</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>191</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>194</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>199</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>201</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>202</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>203</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>204</v>
+      </c>
+      <c r="CB4" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="CC4" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="CD4" t="s">
+        <v>207</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>209</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>210</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>213</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>214</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>215</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>216</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>217</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>218</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>219</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>235</v>
+      </c>
+      <c r="CR4" t="s">
         <v>120</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="5">
-        <v>100</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW2" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY2" s="5">
-        <v>200</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="BC2" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BD2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="BJ2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BK2" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="BL2" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="BM2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="BN2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="BO2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BP2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="BQ2" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BS2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="BT2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="BU2" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="BV2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="BW2" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="BX2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BY2" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="BZ2" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CA2" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="CB2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="CC2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="CD2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="CE2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="CF2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="CG2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="CH2" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="CI2" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="CJ2" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="CK2" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CL2" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="CM2" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CN2" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="CO2" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="CP2" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="CQ2" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="CR2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="CS2" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="CT2" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="CU2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="CV2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="CW2" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="CX2" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="CY2" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="CZ2" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="DA2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="DB2" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:106">
-      <c r="A3" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="CS4" t="s">
+        <v>221</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>222</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>223</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>225</v>
+      </c>
+      <c r="CZ4" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1234</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="O3" s="5">
-        <v>100</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW3" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY3" s="5">
-        <v>200</v>
-      </c>
-      <c r="AZ3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="BA3" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="BC3" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BD3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="BE3" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="BF3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG3" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH3" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="BI3" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="BJ3" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BK3" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="BL3" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="BM3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="BN3" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="BO3" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BP3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="BQ3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BS3" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="BT3" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="BU3" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="BV3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="BW3" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="BX3" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BY3" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="BZ3" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CA3" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="CB3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="CC3" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="CD3" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="CE3" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="CF3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="CG3" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="CH3" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="CI3" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="CJ3" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="CK3" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CL3" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="CM3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CN3" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="CO3" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="CP3" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="CQ3" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="CR3" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="CS3" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="CT3" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="CU3" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="CV3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="CW3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="CX3" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="CY3" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="CZ3" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="DA3" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="DB3" s="5" t="s">
-        <v>204</v>
+      <c r="DA4" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2383,69 +2725,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E38EC3-7F7A-4EBC-819D-9AB5D2ACFCC5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col bestFit="true" customWidth="true" max="2" min="1" width="12.125"/>
+    <col bestFit="true" customWidth="true" max="3" min="3" width="7.125"/>
+    <col bestFit="true" customWidth="true" max="4" min="4" width="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="B2">
         <v>202405</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="B3">
         <v>202405</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>202405</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +2801,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2469,16 +2811,16 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
@@ -2487,64 +2829,65 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>1234</v>
+        <v>6800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup horizontalDpi="360" r:id="rId1" orientation="portrait" paperSize="9" verticalDpi="360"/>
 </worksheet>
 </file>
 
@@ -2570,19 +2913,19 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s">
         <v>26</v>
@@ -2591,183 +2934,183 @@
         <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="K1" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="L1" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="M1" t="s">
-        <v>216</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I2">
-        <v>1000</v>
+        <v>5100</v>
       </c>
       <c r="J2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K2" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>334</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>5100</v>
       </c>
       <c r="J3" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K3" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>333</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4">
+        <v>5100</v>
+      </c>
+      <c r="J4" t="s">
         <v>230</v>
       </c>
-      <c r="G4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4">
-        <v>1000</v>
-      </c>
-      <c r="J4" t="s">
-        <v>218</v>
-      </c>
       <c r="K4" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>333</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I5">
-        <v>1234</v>
+        <v>6800</v>
       </c>
       <c r="J5" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K5" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1234</v>
+        <v>6800</v>
       </c>
     </row>
   </sheetData>
@@ -2780,24 +3123,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="J7" sqref="J1:J7"/>
-    </sheetView>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col bestFit="true" customWidth="true" max="3" min="3" width="12.125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
@@ -2806,129 +3150,129 @@
         <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G2">
-        <v>334</v>
+        <v>210</v>
       </c>
       <c r="H2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I2">
-        <v>367</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G3">
-        <v>1234</v>
+        <v>3677</v>
       </c>
       <c r="H3">
-        <v>123</v>
+        <v>367</v>
       </c>
       <c r="I3">
-        <v>1357</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G4">
-        <v>333</v>
+        <v>6800</v>
       </c>
       <c r="H4">
-        <v>33</v>
+        <v>680</v>
       </c>
       <c r="I4">
-        <v>366</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G5">
-        <v>333</v>
+        <v>1213</v>
       </c>
       <c r="H5">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="I5">
-        <v>366</v>
+        <v>1334</v>
       </c>
     </row>
   </sheetData>
